--- a/SIF_2023AllCol.xlsx
+++ b/SIF_2023AllCol.xlsx
@@ -2372,7 +2372,7 @@
     <t>LARRAIN VIAL COLOMBIA</t>
   </si>
   <si>
-    <t>OLD MUTUAL SOCIEDAD FIDUCIARIA</t>
+    <t>OLD MUTUAL SOCIEDAD FIDU</t>
   </si>
   <si>
     <t>PREVISORA</t>
@@ -2759,7 +2759,7 @@
     <t>Skandia Multiplazo</t>
   </si>
   <si>
-    <t>ABIERTA CON PP EFECTIVO A PLAZOS - CARTERA CON COMPARTIMENTOS</t>
+    <t xml:space="preserve">ABIERTA - PP EFECTIVO A PLAZOS </t>
   </si>
   <si>
     <t>ABIERTA DE ALTA LIQUIDEZ</t>
